--- a/biology/Botanique/Jardin_Caroline-Aigle/Jardin_Caroline-Aigle.xlsx
+++ b/biology/Botanique/Jardin_Caroline-Aigle/Jardin_Caroline-Aigle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Caroline-Aigle est un jardin public situé sur la rive gauche de la Seine, localisé dans le parc André-Citroën.
@@ -512,7 +524,9 @@
           <t>Situation et desserte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Caroline-Aigle se situe dans le parc André-Citroën, dans le 15e arrondissement de Paris. Il est desservi par la ligne 10 (station Javel - André Citroën) et par la ligne 8 (stations Lourmel et Balard), le RER C (gare du Pont du Garigliano et gare de Javel) et la ligne de tramway T3a (station Pont du Garigliano).
 </t>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination de ce jardin rend hommage à Caroline Aigle (1974-2007), pilote de chasse et héroïne de l'Armée de l'air.
-Le nom a été officialisée par vote du Conseil de Paris en 2015[1].
-Le jardin a été inauguré le 3 juillet 2015[2].
+Le nom a été officialisée par vote du Conseil de Paris en 2015.
+Le jardin a été inauguré le 3 juillet 2015.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Urbanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maîtres d’œuvre du parc André Citroën, auquel appartient le jardin, sont les paysagistes Gilles Clément, Allain Provost et les architectes Patrick Berger, Jean-François Jodry et Jean-Paul Viguier.
 </t>
